--- a/Info_Extractor/DclgenInfos.xlsx
+++ b/Info_Extractor/DclgenInfos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="463">
   <si>
     <t>DCLGEN</t>
   </si>
@@ -20,478 +20,1387 @@
     <t>Nome da Tabela</t>
   </si>
   <si>
-    <t>FIAVB000</t>
-  </si>
-  <si>
-    <t>DB2PRD.TARTGO_CONTR_PEND</t>
-  </si>
-  <si>
-    <t>FIAVB001</t>
-  </si>
-  <si>
-    <t>DB2PRD.TAVISO_COBR_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB002</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCARTA_NEGOC_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB003</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCARTA_PEND_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB004</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCLAUS_GARNT_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB005</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCLAUS_MOD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB006</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_ALCAD_ARTGO</t>
-  </si>
-  <si>
-    <t>FIAVB007</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_ALCAD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB008</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_ALCAD_BAIXA</t>
-  </si>
-  <si>
-    <t>FIAVB009</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_ALCAD_MULTA</t>
-  </si>
-  <si>
-    <t>FIAVB010</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_ALCAD_COMIS</t>
-  </si>
-  <si>
-    <t>FIAVB011</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_ALCAD_PGTO</t>
-  </si>
-  <si>
-    <t>FIAVB012</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_ALCAD_TARIF</t>
-  </si>
-  <si>
-    <t>FIAVB013</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_CONTR_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB014</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_DIFCA_ARTGO</t>
-  </si>
-  <si>
-    <t>FIAVB015</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_DIFCA_COMIS</t>
-  </si>
-  <si>
-    <t>FIAVB016</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_DIFCA_FAIXA</t>
-  </si>
-  <si>
-    <t>FIAVB017</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_DIFCA_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB018</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_DIFCA_FNALD</t>
-  </si>
-  <si>
-    <t>FIAVB019</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_DIFCA_GRP</t>
-  </si>
-  <si>
-    <t>FIAVB020</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_DIFCA_PER</t>
-  </si>
-  <si>
-    <t>FIAVB021</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_DIFCA_PSSOA</t>
-  </si>
-  <si>
-    <t>FIAVB022</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONDC_PEND_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB023</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONTR_CONDC_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB024</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONTR_NEGOC_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB025</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCONTR_PEND_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB026</t>
-  </si>
-  <si>
-    <t>DB2PRD.TCTRL_LOG_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB027</t>
-  </si>
-  <si>
-    <t>DB2PRD.TDETLH_MOD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB028</t>
-  </si>
-  <si>
-    <t>DB2PRD.TDOCTO_MOD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB029</t>
-  </si>
-  <si>
-    <t>DB2PRD.TDOCTO_NEGOC_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB030</t>
-  </si>
-  <si>
-    <t>DB2PRD.TDOCTO_PEND_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB031</t>
-  </si>
-  <si>
-    <t>DB2PRD.TDOCTO_SOLTC_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB032</t>
-  </si>
-  <si>
-    <t>DB2PRD.TDSTNA_AVISO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB033</t>
-  </si>
-  <si>
-    <t>DB2PRD.TFNALD_COMIS_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB034</t>
-  </si>
-  <si>
-    <t>DB2PRD.TFNALD_DOCTO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB035</t>
-  </si>
-  <si>
-    <t>DB2PRD.TGARNT_PEND_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB036</t>
-  </si>
-  <si>
-    <t>DB2PRD.THIST_CARTA_NEGOC</t>
-  </si>
-  <si>
-    <t>FIAVB038</t>
-  </si>
-  <si>
-    <t>DB2PRD.THIST_CONTR_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB039</t>
-  </si>
-  <si>
-    <t>DB2PRD.THIST_DOCTO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB040</t>
-  </si>
-  <si>
-    <t>DB2PRD.THIST_PRTCP_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB041</t>
-  </si>
-  <si>
-    <t>DB2PRD.THIST_RNCIA_ARTGO</t>
-  </si>
-  <si>
-    <t>FIAVB042</t>
-  </si>
-  <si>
-    <t>DB2PRD.TLOC_MANUT_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB043</t>
-  </si>
-  <si>
-    <t>DB2PRD.TMOD_ARTGO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB044</t>
-  </si>
-  <si>
-    <t>DB2PRD.TMOD_CLAUS_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB045</t>
-  </si>
-  <si>
-    <t>DB2PRD.TMOD_GARNT_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB046</t>
-  </si>
-  <si>
-    <t>DB2PRD.TMOD_PERSO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB047</t>
-  </si>
-  <si>
-    <t>DB2PRD.TOPER_FIADR_CRITR</t>
-  </si>
-  <si>
-    <t>FIAVB048</t>
-  </si>
-  <si>
-    <t>DB2PRD.TOPER_FIADR_GARNT</t>
-  </si>
-  <si>
-    <t>FIAVB049</t>
-  </si>
-  <si>
-    <t>DB2PRD.TOPER_FIADR_MOEDA</t>
-  </si>
-  <si>
-    <t>FIAVB050</t>
-  </si>
-  <si>
-    <t>DB2PRD.TOPER_FIADR_PGTO</t>
-  </si>
-  <si>
-    <t>FIAVB051</t>
-  </si>
-  <si>
-    <t>DB2PRD.TOPER_FNALD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB052</t>
-  </si>
-  <si>
-    <t>DB2PRD.TOPER_PRODT_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB053</t>
-  </si>
-  <si>
-    <t>DB2PRD.TOPER_UND_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB054</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPARM_ARTGO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB055</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPARM_AVISO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB056</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPARM_CRITR_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB057</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPARM_CTRL_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB058</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPARM_FNALD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB059</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPARM_FORMA_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB060</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPARM_MOD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB061</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPRTCP_NEGOC_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB062</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPRTCP_PEND_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB063</t>
-  </si>
-  <si>
-    <t>DB2PRD.TRNCIA_ARTGO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB064</t>
-  </si>
-  <si>
-    <t>DB2PRD.TSOLTC_MOD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB065</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_COBR_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB066</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_CONTR_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB067</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_CRITR_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB068</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_DSTNA_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB069</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_FNALD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB070</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_MANUT_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB071</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_MOD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB072</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_PRODT_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB073</t>
-  </si>
-  <si>
-    <t>DB2PRD.TDOCTO_FIADR_REP</t>
-  </si>
-  <si>
-    <t>FIAVB074</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPCELA_CONDC_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB076</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPGTO_CONTR_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB077</t>
-  </si>
-  <si>
-    <t>DB2PRD.TAGPTO_GARNT_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB078</t>
-  </si>
-  <si>
-    <t>DB2PRD.TMOD_FNALD_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB079</t>
-  </si>
-  <si>
-    <t>DB2PRD.TPARM_AGPTO_FIADR</t>
-  </si>
-  <si>
-    <t>FIAVB080</t>
-  </si>
-  <si>
-    <t>DB2PRD.TTPO_AGPTO_FIADR</t>
+    <t>DCOMB000</t>
+  </si>
+  <si>
+    <t>DB2PRD.CTRL_ROTNA_DCOM</t>
+  </si>
+  <si>
+    <t>DCOMB001</t>
+  </si>
+  <si>
+    <t>DB2PRD.TABRGC_GEOGR_CONVE</t>
+  </si>
+  <si>
+    <t>DCOMB002</t>
+  </si>
+  <si>
+    <t>DB2PRD.TABRGC_ISENC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB003</t>
+  </si>
+  <si>
+    <t>DB2PRD.TARGMT_RELAT_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB004</t>
+  </si>
+  <si>
+    <t>DB2PRD.TAUTRZ_OPER_ESPCL</t>
+  </si>
+  <si>
+    <t>DCOMB008</t>
+  </si>
+  <si>
+    <t>DB2PRD.TAVISO_CLI_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB009</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCLI_TX_DFNDO</t>
+  </si>
+  <si>
+    <t>DCOMB010</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCOMIS_CONVE_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB011</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONTR_LIM_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB012</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_CLI_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB013</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_CLI_ROTRO</t>
+  </si>
+  <si>
+    <t>DCOMB014</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_CLI_TX_REDE</t>
+  </si>
+  <si>
+    <t>DCOMB015</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_CONDC_PGTO</t>
+  </si>
+  <si>
+    <t>DCOMB016</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_GRAL_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB017</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_GRAL_ROTRO</t>
+  </si>
+  <si>
+    <t>DCOMB018</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_TX_DFNDO</t>
+  </si>
+  <si>
+    <t>DCOMB019</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_TX_REDE</t>
+  </si>
+  <si>
+    <t>DCOMB020</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCTRL_NRO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB021</t>
+  </si>
+  <si>
+    <t>DB2PRD.TDEPDC_EXCVD_CONVE</t>
+  </si>
+  <si>
+    <t>DCOMB022</t>
+  </si>
+  <si>
+    <t>DB2PRD.TDOCTO_FORML_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB023</t>
+  </si>
+  <si>
+    <t>DB2PRD.TELMTO_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB024</t>
+  </si>
+  <si>
+    <t>DB2PRD.TESPCE_TPO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB025</t>
+  </si>
+  <si>
+    <t>DB2PRD.TEVNTO_ELMTO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB026</t>
+  </si>
+  <si>
+    <t>DB2PRD.TEVNTO_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB027</t>
+  </si>
+  <si>
+    <t>DB2PRD.TEVNTO_WORKF_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB028</t>
+  </si>
+  <si>
+    <t>DB2PRD.TEXPUR_ELMTO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB029</t>
+  </si>
+  <si>
+    <t>DB2PRD.TFAIXA_PRZ_CONSL</t>
+  </si>
+  <si>
+    <t>DCOMB030</t>
+  </si>
+  <si>
+    <t>DB2PRD.TFATO_GERDR_CTBIL</t>
+  </si>
+  <si>
+    <t>DCOMB031</t>
+  </si>
+  <si>
+    <t>DB2PRD.TLOG_COPLT_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB033</t>
+  </si>
+  <si>
+    <t>DB2PRD.TMEIO_ENTRD_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB034</t>
+  </si>
+  <si>
+    <t>DB2PRD.TMEIO_LIBRC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB035</t>
+  </si>
+  <si>
+    <t>DB2PRD.TMEIO_PGTO_CONVE</t>
+  </si>
+  <si>
+    <t>DCOMB036</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_ISENC_PSSOA</t>
+  </si>
+  <si>
+    <t>DCOMB037</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPARM_CONFG_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB038</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPARM_PROCM_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB039</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPARMZ_CONTR_LIM</t>
+  </si>
+  <si>
+    <t>DCOMB040</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPARMZ_PCELA_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB041</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPERDC_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB042</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPERDC_RELAT_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB043</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPRODT_CONDC_PGTO</t>
+  </si>
+  <si>
+    <t>DCOMB044</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPRODT_DOCTO_FORML</t>
+  </si>
+  <si>
+    <t>DCOMB045</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPRODT_MEIO_ENTRD</t>
+  </si>
+  <si>
+    <t>DCOMB046</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPRODT_TPO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB047</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPRODT_VALID_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB048</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPSSOA_ISENC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB049</t>
+  </si>
+  <si>
+    <t>DB2PRD.TREGRA_COMIS_CONVE</t>
+  </si>
+  <si>
+    <t>DCOMB050</t>
+  </si>
+  <si>
+    <t>DB2PRD.TREGRA_IOF_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB051</t>
+  </si>
+  <si>
+    <t>DB2PRD.TREGRA_MORA_GERC</t>
+  </si>
+  <si>
+    <t>DCOMB052</t>
+  </si>
+  <si>
+    <t>DB2PRD.TREGRA_MORA_LEGAL</t>
+  </si>
+  <si>
+    <t>DCOMB053</t>
+  </si>
+  <si>
+    <t>DB2PRD.TRELAT_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB054</t>
+  </si>
+  <si>
+    <t>DB2PRD.TROTRO_ELMTO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB055</t>
+  </si>
+  <si>
+    <t>DB2PRD.TROTRO_TRILA_CTBIL</t>
+  </si>
+  <si>
+    <t>DCOMB056</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSACDO_ISENC_CDENT</t>
+  </si>
+  <si>
+    <t>DCOMB057</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSIT_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB058</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSIT_ELMTO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB059</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_AVISO_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB060</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_CONC_CTBIL</t>
+  </si>
+  <si>
+    <t>DCOMB061</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_CONTR_LIM</t>
+  </si>
+  <si>
+    <t>DCOMB062</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_ISENC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB063</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_ISENC_PSSOA</t>
+  </si>
+  <si>
+    <t>DCOMB064</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_MEIO_ENTRD</t>
+  </si>
+  <si>
+    <t>DCOMB065</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_MEIO_LIBRC</t>
+  </si>
+  <si>
+    <t>DCOMB066</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_MEIO_PGTO</t>
+  </si>
+  <si>
+    <t>DCOMB067</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_REGRA_CONTR</t>
+  </si>
+  <si>
+    <t>DCOMB068</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_REGRA_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB069</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_ROTRO_INCL</t>
+  </si>
+  <si>
+    <t>DCOMB071</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_TX_DFNDO</t>
+  </si>
+  <si>
+    <t>DCOMB072</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_TX_JURO</t>
+  </si>
+  <si>
+    <t>DCOMB073</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_TX_REDE</t>
+  </si>
+  <si>
+    <t>DCOMB074</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTAC_CONTR_LIM</t>
+  </si>
+  <si>
+    <t>DCOMB075</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTESTM_CONTR_LIM</t>
+  </si>
+  <si>
+    <t>DCOMB076</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTESTM_CONVE_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB077</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTESTM_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB078</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_AGPTO_ROTRO</t>
+  </si>
+  <si>
+    <t>DCOMB079</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_ARGMT_RELAT</t>
+  </si>
+  <si>
+    <t>DCOMB080</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_AUTRZ_ESPCL</t>
+  </si>
+  <si>
+    <t>DCOMB081</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_COBR_TAC</t>
+  </si>
+  <si>
+    <t>DCOMB082</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_CTA_CONC</t>
+  </si>
+  <si>
+    <t>DCOMB083</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB084</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_DOCTO_FORML</t>
+  </si>
+  <si>
+    <t>DCOMB085</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_ISENC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB086</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_TX_JURO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB087</t>
+  </si>
+  <si>
+    <t>DB2PRD.TWORKF_CONTR_LIM</t>
+  </si>
+  <si>
+    <t>DCOMB088</t>
+  </si>
+  <si>
+    <t>DB2PRD.TWORKF_CONVE_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB089</t>
+  </si>
+  <si>
+    <t>DB2PRD.TWORKF_CONVE_GRAL</t>
+  </si>
+  <si>
+    <t>DCOMB090</t>
+  </si>
+  <si>
+    <t>DB2PRD.TMEIO_PGTO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB091</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB092</t>
+  </si>
+  <si>
+    <t>DB2PRD.TAG_SGMTO_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB093</t>
+  </si>
+  <si>
+    <t>DB2PRD.TARGMT_SOLTC_RELAT</t>
+  </si>
+  <si>
+    <t>DCOMB094</t>
+  </si>
+  <si>
+    <t>DB2PRD.TBAIXA_PCELA_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB095</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCHEQC_MODIF_PCELA</t>
+  </si>
+  <si>
+    <t>DCOMB096</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCLI_CRITR_REDE</t>
+  </si>
+  <si>
+    <t>DCOMB097</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_CTRL_FORNC</t>
+  </si>
+  <si>
+    <t>DCOMB099</t>
+  </si>
+  <si>
+    <t>DB2PRD.TESTAT_MOVTC_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB0A0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TESTAT_MOVTC_DEPDC</t>
+  </si>
+  <si>
+    <t>DCOMB0A1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TESTAT_MOVTC_SEGMT</t>
+  </si>
+  <si>
+    <t>DCOMB0A2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TFATO_GERDR_SIT</t>
+  </si>
+  <si>
+    <t>DCOMB0A3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TFORNC_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB0A4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TGARNT_CONTR_LIM</t>
+  </si>
+  <si>
+    <t>DCOMB0A5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TGARNT_CONVE_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB0A6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TGARNT_OPER_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0A7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TGRAL_CRITR_REDE</t>
+  </si>
+  <si>
+    <t>DCOMB0A8</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_BAIXA_PCELA</t>
+  </si>
+  <si>
+    <t>DCOMB0A9</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_CHEQC_PCELA</t>
+  </si>
+  <si>
+    <t>DCOMB0B1</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_FORNC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0B2</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_GARNT_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0B3</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_INSTR_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0B4</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_MEIO_LIBRC</t>
+  </si>
+  <si>
+    <t>DCOMB0B5</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_OPER_AUTRZ</t>
+  </si>
+  <si>
+    <t>DCOMB0B6</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_OPER_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0B7</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_OPER_ISENC</t>
+  </si>
+  <si>
+    <t>DCOMB0B8</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_PCELA_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0B9</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_SPROD_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0C0</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_TITLO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0C1</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_WORKF_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0C2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TINSTR_DESC_PCELA</t>
+  </si>
+  <si>
+    <t>DCOMB0C3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TMOVTC_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB0C4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_AUTRZ_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0C5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB0C6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_ISENC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0C7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_MEIO_LIBRC</t>
+  </si>
+  <si>
+    <t>DCOMB0C8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_ROTRO_INCL</t>
+  </si>
+  <si>
+    <t>DCOMB0C9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPCELA_OPER_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0D0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPRODT_MEIO_PGTO</t>
+  </si>
+  <si>
+    <t>DCOMB0D1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPROVS_INADP_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB0D2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPROVS_INADP_DEPDC</t>
+  </si>
+  <si>
+    <t>DCOMB0D3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPROVS_INADP_SEGMT</t>
+  </si>
+  <si>
+    <t>DCOMB0D4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPSSOA_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB0D5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TRELAC_CHEQ_IMPRE</t>
+  </si>
+  <si>
+    <t>DCOMB0D6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TRELAC_PSSOA_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0D7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSACDO_TITLO_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0D8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_BDERO_CTDIA</t>
+  </si>
+  <si>
+    <t>DCOMB0D9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_CART_COBR</t>
+  </si>
+  <si>
+    <t>DCOMB0E0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_CHEQC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0E1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_CONDC_PGTO</t>
+  </si>
+  <si>
+    <t>DCOMB0E2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_DIGTC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0E3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_FORNC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0E4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_LOTE_CTDIA</t>
+  </si>
+  <si>
+    <t>DCOMB0E5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_OPER_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0E6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_SELEC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0E7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_TITLO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0E8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSOLTC_RELAT_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0E9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_CRITR_REDE</t>
+  </si>
+  <si>
+    <t>DCOMB0F0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_GARNT_CREDT</t>
+  </si>
+  <si>
+    <t>DCOMB0F1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTITLO_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB0F2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_BAIXA_PCELA</t>
+  </si>
+  <si>
+    <t>DCOMB0F3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_BDERO_CTDIA</t>
+  </si>
+  <si>
+    <t>DCOMB0F4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_CART_COBR</t>
+  </si>
+  <si>
+    <t>DCOMB0F6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_CHEQC_PCELA</t>
+  </si>
+  <si>
+    <t>DCOMB0F7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_CONDC_PGTO</t>
+  </si>
+  <si>
+    <t>DCOMB0F9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_CTRL_DIGTC</t>
+  </si>
+  <si>
+    <t>DCOMB0G0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_FORNC_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0G1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_GARNT_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0G2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_INSTR_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0G3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_LOTE_CTDIA</t>
+  </si>
+  <si>
+    <t>DCOMB0G4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_OPER_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0G5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_PCELA_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0G6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_RUTIL_TITLO</t>
+  </si>
+  <si>
+    <t>DCOMB0G7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_SELEC_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0G8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_TITLO_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0G9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TWORKF_OPER_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0H0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONTR_CONS_CREDT</t>
+  </si>
+  <si>
+    <t>DCOMB0H1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONTR_LIM_ROTRO</t>
+  </si>
+  <si>
+    <t>DCOMB0H2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_HORA_REMSS</t>
+  </si>
+  <si>
+    <t>DCOMB0H3</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_JUSTF_BAIXA</t>
+  </si>
+  <si>
+    <t>DCOMB0H4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TINFO_TEMPR_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0H5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TJUSTF_BAIXA_PCELA</t>
+  </si>
+  <si>
+    <t>DCOMB0H6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_CTA_CHEQC</t>
+  </si>
+  <si>
+    <t>DCOMB0H7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_CTA_CHEQC</t>
+  </si>
+  <si>
+    <t>DCOMB0H8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_MEIO_LIBRC</t>
+  </si>
+  <si>
+    <t>DCOMB0H9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_OPER_AUTRZ</t>
+  </si>
+  <si>
+    <t>DCOMB0I0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_OPER_ISENC</t>
+  </si>
+  <si>
+    <t>DCOMB0I1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_RUTIL_INSTR</t>
+  </si>
+  <si>
+    <t>DCOMB0I2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TIMPLT_SIST_AG</t>
+  </si>
+  <si>
+    <t>DCOMB0I3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTITLO_ANLSE_CREDT</t>
+  </si>
+  <si>
+    <t>DCOMB0I4</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_PAREC_FORML</t>
+  </si>
+  <si>
+    <t>DCOMB0I5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPAREC_FORML_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0I6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_PARMZ_CUSTO</t>
+  </si>
+  <si>
+    <t>DCOMB0I7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONVE_CONS_CREDT</t>
+  </si>
+  <si>
+    <t>DCOMB0I8</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_PSSOA_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0I9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_SGMTO_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0J0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TESTAT_QNTDO_PERC</t>
+  </si>
+  <si>
+    <t>DCOMB0J1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPOSIC_CHEQ_ATIVO</t>
+  </si>
+  <si>
+    <t>DCOMB0J2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPOSIC_CHEQ_BXADO</t>
+  </si>
+  <si>
+    <t>DCOMB0J3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPOSIC_TITLO_ATIVO</t>
+  </si>
+  <si>
+    <t>DCOMB0J5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCTRL_NRO_CORP</t>
+  </si>
+  <si>
+    <t>DCOMB0J6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCOMPV_OPER_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0J7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTX_OPER_DESC_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB0J8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_TX_ITNET</t>
+  </si>
+  <si>
+    <t>DCOMB0J9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCTCIA_PGTO_BASIL</t>
+  </si>
+  <si>
+    <t>DCOMB0K0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TERRO_PGTO_BASIL</t>
+  </si>
+  <si>
+    <t>DCOMB0K1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TLOTE_RPROC_PGTO</t>
+  </si>
+  <si>
+    <t>DCOMB0K2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPGTO_INCOT_BASIL</t>
+  </si>
+  <si>
+    <t>DCOMB0K3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTPO_PGTO_BASIL</t>
+  </si>
+  <si>
+    <t>DCOMB0K4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPGTO_CORRC_BASIL</t>
+  </si>
+  <si>
+    <t>DCOMB0K5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TESTOQ_OPER_ATIVO</t>
+  </si>
+  <si>
+    <t>DCOMB0K6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TDESPR_CHEQC_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0K7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TDESPR_OPER_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0K8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TDESPR_TITLO_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0K9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTESTM_AG_OPER</t>
+  </si>
+  <si>
+    <t>DCOMB0L0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSIT_ANLSE_CREDT</t>
+  </si>
+  <si>
+    <t>DCOMB0L1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTITLO_ANALD_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0L2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCUSTO_EFETV_TOT</t>
+  </si>
+  <si>
+    <t>DCOMB0L3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPARMZ_CUSTO_EFETV</t>
+  </si>
+  <si>
+    <t>DCOMB0L4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_CUSTO_EFETV</t>
+  </si>
+  <si>
+    <t>DCOMB0L5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPARM_SEQ_CART</t>
+  </si>
+  <si>
+    <t>DCOMB0L6</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_OPER_COMPL</t>
+  </si>
+  <si>
+    <t>DCOMB0L7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TMNTRC_MSGEM_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0L8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_DESC_COMPL</t>
+  </si>
+  <si>
+    <t>DCOMB0L9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSMULA_OPER_COMPL</t>
+  </si>
+  <si>
+    <t>DCOMB0M0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_OPER_COMPL</t>
+  </si>
+  <si>
+    <t>DCOMB0M1</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_BACEN_REGRA</t>
+  </si>
+  <si>
+    <t>DCOMB0M2</t>
+  </si>
+  <si>
+    <t>DB2PRD.TSPROD_PRZ_RURAL</t>
+  </si>
+  <si>
+    <t>DCOMB0M3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TCONTR_DESC_COML</t>
+  </si>
+  <si>
+    <t>DCOMB0M4</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_CONTR_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0M5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_DESC_MGRAD</t>
+  </si>
+  <si>
+    <t>DCOMB0M6</t>
+  </si>
+  <si>
+    <t>DB2PRD.TTRASI_CATAO_ANTVL</t>
+  </si>
+  <si>
+    <t>DCOMB0M7</t>
+  </si>
+  <si>
+    <t>DB2PRD.TMOTVO_BAIXA_PREJ</t>
+  </si>
+  <si>
+    <t>DCOMB0M8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TREGRA_CTBIL_PREJ</t>
+  </si>
+  <si>
+    <t>DCOMB0M9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TROTRO_CTBIL_PREJ</t>
+  </si>
+  <si>
+    <t>DCOMB0N0</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_LIM_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB0N1</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_LIM_PRODT</t>
+  </si>
+  <si>
+    <t>DCOMB0N3</t>
+  </si>
+  <si>
+    <t>DB2PRD.TLIM_PRODT_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0N4</t>
+  </si>
+  <si>
+    <t>DB2PRD.TOPER_DESC_RCUSA</t>
+  </si>
+  <si>
+    <t>DCOMB0N5</t>
+  </si>
+  <si>
+    <t>DB2PRD.TANLSE_RCBVL_DESC</t>
+  </si>
+  <si>
+    <t>DCOMB0N6</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_ANLSE_RCBVL</t>
+  </si>
+  <si>
+    <t>DCOMB0N7</t>
+  </si>
+  <si>
+    <t>DB2PRD.THIST_LIBRC_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB0N8</t>
+  </si>
+  <si>
+    <t>DB2PRD.TLIBRC_CLI_RCBVL</t>
+  </si>
+  <si>
+    <t>DCOMB0N9</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPARM_LIM_CLI</t>
+  </si>
+  <si>
+    <t>DCOMB0P0</t>
+  </si>
+  <si>
+    <t>DB2PRD.TPARM_LIM_SPROD</t>
+  </si>
+  <si>
+    <t>DCOMS0L5</t>
   </si>
 </sst>
 </file>
@@ -535,7 +1444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B80" displayName="MYTABLE" name="Test" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B232" displayName="MYTABLE" name="Test" id="1">
   <tableColumns count="3">
     <tableColumn name="DCLGEN" id="1"/>
     <tableColumn name="Nome da Tabela" id="2"/>
@@ -1192,6 +2101,1222 @@
         <v>159</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts>
